--- a/SRC/FlowChart/取消交易/inEVENT_Responder_VOID.xlsx
+++ b/SRC/FlowChart/取消交易/inEVENT_Responder_VOID.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>inEVENT_Responder</t>
   </si>
@@ -31,79 +31,7 @@
     <t>inMENU_FUNCTION_NEWUI_PAGE_Flow</t>
   </si>
   <si>
-    <t>inMENU_FUNCTION_NEWUI_PAGE1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">螢幕顯示Menu，根據MENU_CHECK_TABLE的checkfunc 判斷功能是否有無開，決定是否顯示反白圖等，接著while等待點擊事件，當點下按鍵一(交易選單)，
-跳到inMENU_NEWUI_TRANSACTION_MENU顯示交易選單，同樣點擊/按下數字鍵一，
-呼叫inMENU_VOID，先判斷inNCCC_Func_Check_Transaction_Function是否開啟取消交易的功能，
-設定srEventMenuItem-&gt;inCode = _VOID_;
-srEventMenuItem-&gt;inRunOperationID = _OPERATION_VOID_;
-srEventMenuItem-&gt;inRunTRTID = _TRT_VOID_;
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inFunc_GetHostNum_NewUI</t>
-  </si>
-  <si>
-    <t>先判斷是否已經選擇過主機。
-判斷條件為特定的 BitOn =true + inLoadHDTRec(0)，或是 srBRec.inHDTIndex 不為 -1。
-若已選定主機，則直接結束流程，並取得 srBRec.lnBatchNum。
-若尚未選擇主機，才進入主機選單處理流程，逐筆讀取每一筆 HDTRec。
-針對每一筆 HDTRec，判斷該筆主機搭配交易類型是否需要顯示在選單中，只有符合條件的資料才會納入選單。
-在建立選單的過程中，同時計算符合條件的主機總筆數，記錄每筆主機在選單中的順序，並組合顯示用的文字內容（主機名稱加上所在的第幾筆）。
-依照主機總筆數，決定畫面上需要顯示的選單項目數，並將各主機選項顯示在螢幕上。
-等待使用者操作，接收觸控點擊或按鍵輸入，依使用者選擇的項目，取得對應的 srBRec.lnBatchNum。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inBATCH_FuncUserChoice_By_Sqlite</t>
-  </si>
-  <si>
-    <t>inFunc_Find_Specific_HDTindex 用來取得 DCC、NCCC、ESVC、TRUST 各主機在 HDT 中的 index（也就是位於第幾筆 record）。
-pobTran-&gt;srBRec.inHDTIndex 則用來判斷目前交易所屬的主機類型，並依此呼叫對應主機的處理 function，以取得 pobTran-&gt;srBRec.lnOrgInvNum。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>inHG_Func_SelectVoidTRT</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>如果選擇的 HDPT 主機為 HGTRT，且交易類型為取消交易或 CUP 取消交易，則更新</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>pobTran-&gt;inHGTransactionCode = pobTran-&gt;inTransactionCode(_VOID_/_CUP_VOID_);
-pobTran-&gt;inRunTRTID = _TRT_HG_VOID_;</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>inNCCC_Func_Check_Txn_Function_When_ECR</t>
@@ -152,16 +80,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>inFunc_ECR_CheckCustomPassword_Flow:
-如果交易是從ECR發起才做後續處理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inFunc_CheckTermStatus:
-確認機器狀態，包括是否已下TMS參數和DCC參數(未仔細看過整支程式流程)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>inModem_Predial</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -182,29 +100,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>inNCCC_Func_VOID_Confirm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在非特定客製化的情況下，螢幕需顯示 授權碼 與 金額，
-並等待使用者輸入 零 以確認交易，更新
-pobTran-&gt;uszUpdateBatchBit = VS_TRUE;
-pobTran-&gt;srBRec.uszVOIDBit = VS_TRUE;
-pobTran-&gt;srBRec.inOrgCode = pobTran-&gt;srBRec.inCode;
-pobTran-&gt;srBRec.inCode = pobTran-&gt;inTransactionCode;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>inFunc_Check_Batch_limit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inNCCC_ESC_Check</t>
-  </si>
-  <si>
-    <t>看起來根據特定條件設定
-pobTran-&gt;srBRec.inESCUploadMode = _ESC_STATUS_NOT_SUPPORTED_;
-pobTran-&gt;srBRec.inESCTransactionCode = pobTran-&gt;inTransactionCode;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -248,7 +144,336 @@
     <t>inNCCC_Func_ESC_FuncProcess</t>
   </si>
   <si>
-    <t>在 開啟 ESC 功能 的情況下，每次操作流程如下：
+    <t>檢查是否符合 免簽條件，若符合，將 pobTran-&gt;srBRec.uszNoSignatureBit 設為 VS_TRUE，
+並呼叫 inBATCH_Update_NoSignature_By_Sqlite，將免簽狀態更新回資料庫。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inNCCC_Func_Check_NoSignature_Final</t>
+  </si>
+  <si>
+    <t>inSIGN_TouchSignature_Flow</t>
+  </si>
+  <si>
+    <t>inFunc_PrintReceipt_ByBuffer_Flow</t>
+  </si>
+  <si>
+    <t>inFunc_NCCC_PrintReceipt_ByBuffer:
+將簽單所需的資料整理並存入 Buffer，最後呼叫 inPRINT_Buffer_OutPut，強制列印簽單。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inECR_Send_Transaction_Result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由 ECR 發動的交易，且簽單列印完成後：
+先將 pobTran-&gt;uszDelaySendBit 設為 VS_FALSE，
+因為接下來呼叫 inECR_Send_Transaction_Result 時，會依據 uszDelaySendBit 進行判斷。
+於 inECR_Send_Transaction_Result 內，呼叫 inECR_Send_Transaction，組成交易電文並發送給 ECR。
+更新 srECROb-&gt;srTransData.uszIsResponse = VS_TRUE，表示已成功回傳 ECR 交易結果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inNCCC_Func_Receive_EI_Flow</t>
+  </si>
+  <si>
+    <t>流程中最後收電子發票的地方，如果是ECR發動的交易，判斷電子發票部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_HG_FUNCTION_DISPLAY_COMPLETE_</t>
+  </si>
+  <si>
+    <t>當 pobTran-&gt;srBRec.uszHappyGoMulti 或 pobTran-&gt;srBRec.uszHappyGoSingle 任一 Bit 為 On 時，
+在螢幕上顯示提示訊息，告知 HappyGo（HG）交易完成。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inNCCC_ESC_Func_Upload</t>
+  </si>
+  <si>
+    <t>看起來是上傳當筆ESC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> (暫時沒看code)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> (暫時沒看code)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/* 
+ &lt;BEGIN &gt;
+ inEVENT_Run_Normal_TRT(&amp;pobTran) &gt;
+ TRT_TABLE TRANSACTION_NCCC_ATS_TABLE[] =  {_TRT_VOID_,    VOID_TRT_NCCC_ATS_TABLE}  
+ */</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/*
+ &lt;END&gt;
+*/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/*
+ &lt;BEGIN&gt;   
+  inFLOW_RunOperation(&amp;pobTran, srEventMenuItem.inRunOperationID) &gt;  
+  OPT_TABLE OPERATION_TABLE[] ={_OPERATION_VOID_,    VOID_OPERATION_TABLE}
+*/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/*
+ &lt;END&gt;
+*/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inMENU_FUNCTION_NEWUI_PAGE1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">螢幕顯示Menu，根據MENU_CHECK_TABLE的checkfunc 判斷功能是否有無開，決定是否顯示反白圖等，接著while等待點擊事件，當點下按鍵一(交易選單)，
+跳到inMENU_NEWUI_TRANSACTION_MENU顯示交易選單，同樣點擊/按下數字鍵一，
+呼叫inMENU_VOID，先判斷inNCCC_Func_Check_Transaction_Function是否開啟取消交易的功能，
+設定
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>srEventMenuItem-&gt;inPasswordLevel = _ACCESS_WITH_CUSTOM_;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>srEventMenuItem-&gt;inCode = _VOID_;
+srEventMenuItem-&gt;inRunOperationID = _OPERATION_VOID_;
+srEventMenuItem-&gt;inRunTRTID = _TRT_VOID_;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>確認機器狀態，包括是否已下TMS參數和DCC參數(未仔細看過整支程式流程)</t>
+  </si>
+  <si>
+    <t>inFunc_ECR_CheckCustomPassword_Flow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inFunc_CheckTermStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果交易是從ECR發起才做後續處理</t>
+  </si>
+  <si>
+    <t>inFunc_GetHostNum_NewUI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">先判斷是否已經選擇過主機。
+判斷條件為特定的 BitOn =true + inLoadHDTRec(0)，或是 srBRec.inHDTIndex 不為 -1。
+若已選定主機，則直接結束流程，並取得 srBRec.lnBatchNum。
+若尚未選擇主機，才進入主機選單處理流程，逐筆讀取每一筆 HDTRec。
+針對每一筆 HDTRec，判斷該筆主機搭配交易類型是否需要顯示在選單中，只有符合條件的資料才會納入選單。
+在建立選單的過程中，同時計算符合條件的主機總筆數，記錄每筆主機在選單中的順序，並組合顯示用的文字內容（主機名稱加上所在的第幾筆）。
+依照主機總筆數，決定畫面上需要顯示的選單項目數，並將各主機選項顯示在螢幕上。
+等待使用者操作，接收觸控點擊或按鍵輸入，依使用者選擇的項目，
+取得對應的 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pobTran-&gt;srBRec.lnBatchNum = atol(szBatchNum);</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inBATCH_FuncUserChoice_By_Sqlite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">inFunc_Find_Specific_HDTindex 用來取得 DCC、NCCC、ESVC、TRUST 各主機在 HDT 中的 index（也就是位於第幾筆 record）。
+pobTran-&gt;srBRec.inHDTIndex 則用來判斷目前交易所屬的主機類型，並依此呼叫對應主機的處理 function，以取得 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pobTran-&gt;srBRec.lnOrgInvNum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>如果選擇的 HDPT 主機為 HGTRT，且交易類型為取消交易或 CUP 取消交易，則更新</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pobTran-&gt;inHGTransactionCode = pobTran-&gt;inTransactionCode(_VOID_/_CUP_VOID_);
+pobTran-&gt;inRunTRTID = _TRT_HG_VOID_;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inNCCC_Func_VOID_Confirm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">在非特定客製化的情況下，螢幕需顯示 授權碼 與 金額，
+並等待使用者輸入 零 以確認交易，更新
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pobTran-&gt;uszUpdateBatchBit = VS_TRUE;
+pobTran-&gt;srBRec.uszVOIDBit = VS_TRUE;
+pobTran-&gt;srBRec.inOrgCode = pobTran-&gt;srBRec.inCode;
+pobTran-&gt;srBRec.inCode = pobTran-&gt;inTransactionCode;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inNCCC_ESC_Check</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">看起來根據特定條件設定
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pobTran-&gt;srBRec.inESCUploadMode = _ESC_STATUS_NOT_SUPPORTED_;
+pobTran-&gt;srBRec.inESCTransactionCode = pobTran-&gt;inTransactionCode;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在 不等簽單列印完成 的情況下：
+呼叫 inECR_Send_Transaction組成交易電文並發送給 ECR
+更新</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> srECROb-&gt;srTransData.uszIsResponse = VS_TRUE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，表示已回傳 ECR 結果</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">在 開啟 ESC 功能 的情況下，每次操作流程如下：
 1.啟用 Bit
     pobTran-&gt;uszFileNameNoNeedHostBit = VS_TRUE
     pobTran-&gt;uszFileNameNoNeedNumBit = VS_TRUE
@@ -258,106 +483,25 @@
     inBATCH_Insert_All_Flow
     sync()
 3.關閉 Bit
-    pobTran-&gt;uszFileNameNoNeedHostBit = VS_FALSE
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    pobTran-&gt;uszFileNameNoNeedHostBit = VS_FALSE
     pobTran-&gt;uszFileNameNoNeedNumBit = VS_FALSE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>檢查是否符合 免簽條件，若符合，將 pobTran-&gt;srBRec.uszNoSignatureBit 設為 VS_TRUE，
-並呼叫 inBATCH_Update_NoSignature_By_Sqlite，將免簽狀態更新回資料庫。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inNCCC_Func_Check_NoSignature_Final</t>
-  </si>
-  <si>
-    <t>inSIGN_TouchSignature_Flow</t>
-  </si>
-  <si>
-    <t>inFunc_PrintReceipt_ByBuffer_Flow</t>
-  </si>
-  <si>
-    <t>inFunc_NCCC_PrintReceipt_ByBuffer:
-將簽單所需的資料整理並存入 Buffer，最後呼叫 inPRINT_Buffer_OutPut，強制列印簽單。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inECR_Send_Transaction_Result</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>由 ECR 發動的交易，且簽單列印完成後：
-先將 pobTran-&gt;uszDelaySendBit 設為 VS_FALSE，
-因為接下來呼叫 inECR_Send_Transaction_Result 時，會依據 uszDelaySendBit 進行判斷。
-於 inECR_Send_Transaction_Result 內，呼叫 inECR_Send_Transaction，組成交易電文並發送給 ECR。
-更新 srECROb-&gt;srTransData.uszIsResponse = VS_TRUE，表示已成功回傳 ECR 交易結果</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>inNCCC_Func_Send_ECR_After_Print_Receipt</t>
-  </si>
-  <si>
-    <t>inNCCC_Func_Receive_EI_Flow</t>
-  </si>
-  <si>
-    <t>流程中最後收電子發票的地方，如果是ECR發動的交易，判斷電子發票部分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_HG_FUNCTION_DISPLAY_COMPLETE_</t>
-  </si>
-  <si>
-    <t>當 pobTran-&gt;srBRec.uszHappyGoMulti 或 pobTran-&gt;srBRec.uszHappyGoSingle 任一 Bit 為 On 時，
-在螢幕上顯示提示訊息，告知 HappyGo（HG）交易完成。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inNCCC_ESC_Func_Upload</t>
-  </si>
-  <si>
-    <t>看起來是上傳當筆ESC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> (暫時沒看code)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在 不等簽單列印完成 的情況下：
-呼叫 inECR_Send_Transaction組成交易電文並發送給 ECR
-更新 srECROb-&gt;srTransData.uszIsResponse = VS_TRUE，表示已回傳 ECR 結果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> (暫時沒看code)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/* 
- &lt;BEGIN &gt;
- inEVENT_Run_Normal_TRT(&amp;pobTran) &gt;
- TRT_TABLE TRANSACTION_NCCC_ATS_TABLE[] =  {_TRT_VOID_,    VOID_TRT_NCCC_ATS_TABLE}  
- */</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/*
- &lt;END&gt;
-*/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/*
- &lt;BEGIN&gt;   
-  inFLOW_RunOperation(&amp;pobTran, srEventMenuItem.inRunOperationID) &gt;  
-  OPT_TABLE OPERATION_TABLE[] ={_OPERATION_VOID_,    VOID_OPERATION_TABLE}
-*/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/*
- &lt;END&gt;
-*/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -365,7 +509,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -393,6 +537,15 @@
       <color rgb="FFFF0000"/>
       <name val="新細明體"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -708,17 +861,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="98.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="95.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="105.25" customWidth="1"/>
     <col min="4" max="4" width="48.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="94.625" customWidth="1"/>
   </cols>
@@ -740,301 +893,315 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="120" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="135" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="75" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>11</v>
+      <c r="B9" s="1"/>
+      <c r="C9" t="s">
+        <v>47</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C10" t="s">
-        <v>12</v>
+      <c r="B10" t="s">
+        <v>4</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D11" t="s">
-        <v>13</v>
+      <c r="C11" t="s">
+        <v>5</v>
       </c>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" ht="90" x14ac:dyDescent="0.3">
-      <c r="E12" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.3">
-      <c r="B13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="1"/>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" ht="90" x14ac:dyDescent="0.3">
+      <c r="E13" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="240" x14ac:dyDescent="0.3">
-      <c r="C15" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="B14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="1"/>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" ht="75" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="240" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" ht="45" x14ac:dyDescent="0.3">
-      <c r="C19" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" ht="45" x14ac:dyDescent="0.3">
-      <c r="B20" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" ht="75" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="75" x14ac:dyDescent="0.3">
+      <c r="C19" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" ht="45" x14ac:dyDescent="0.3">
+      <c r="C21" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" ht="45" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" ht="90" x14ac:dyDescent="0.3">
-      <c r="C24" s="1" t="s">
-        <v>16</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" ht="75" x14ac:dyDescent="0.3">
+      <c r="B24" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" ht="45" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" ht="90" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="2:3" ht="45" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" ht="75" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" ht="45" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B31" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" ht="30" x14ac:dyDescent="0.3">
-      <c r="B32" s="1"/>
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" ht="75" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" ht="90" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" ht="30" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B35" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" ht="120" x14ac:dyDescent="0.3">
-      <c r="C36" s="4" t="s">
-        <v>34</v>
+      <c r="B35" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" ht="90" x14ac:dyDescent="0.3">
+      <c r="B36" s="1"/>
+      <c r="C36" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" ht="45" x14ac:dyDescent="0.3">
-      <c r="C38" s="1" t="s">
-        <v>31</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" ht="120" x14ac:dyDescent="0.3">
+      <c r="C38" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" ht="165" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" ht="45" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C42" s="3" t="s">
-        <v>56</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" ht="165" x14ac:dyDescent="0.3">
+      <c r="C42" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3" ht="30" x14ac:dyDescent="0.3">
-      <c r="C44" s="1" t="s">
-        <v>37</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C44" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3" ht="45" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" ht="30" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3" ht="180" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" ht="45" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3" ht="30" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" ht="180" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C52" s="3" t="s">
-        <v>54</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" ht="30" x14ac:dyDescent="0.3">
+      <c r="C52" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="54" spans="2:3" ht="30" x14ac:dyDescent="0.3">
-      <c r="C54" s="1" t="s">
-        <v>44</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C54" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="56" spans="2:3" ht="90" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" ht="30" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C58" t="s">
-        <v>49</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" ht="75" x14ac:dyDescent="0.3">
+      <c r="C58" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="60" spans="2:3" ht="30" x14ac:dyDescent="0.3">
-      <c r="C60" s="1" t="s">
-        <v>51</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C60" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C62" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="63" spans="2:3" ht="45" x14ac:dyDescent="0.3">
-      <c r="B63" s="1" t="s">
-        <v>58</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" ht="30" x14ac:dyDescent="0.3">
+      <c r="C62" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C64" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" ht="45" x14ac:dyDescent="0.3">
+      <c r="B65" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
